--- a/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_11_11_CO\CN_11_11_CO_CE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1032,11 +1032,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1107,13 +1133,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,6 +1153,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,8 +1459,8 @@
     <col min="10" max="10" width="92.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14" style="7" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" style="7" customWidth="1"/>
     <col min="15" max="15" width="60" style="8" customWidth="1"/>
     <col min="16" max="16" width="21.140625" style="5" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1439,34 +1471,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="51" t="s">
@@ -1475,58 +1507,58 @@
       <c r="L1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="52"/>
       <c r="L2" s="50"/>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1563,10 +1595,10 @@
       <c r="L3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="42" t="s">
         <v>44</v>
       </c>
+      <c r="N3" s="42"/>
       <c r="O3" s="42" t="s">
         <v>132</v>
       </c>
@@ -1690,10 +1722,10 @@
       <c r="L6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="42" t="s">
         <v>36</v>
       </c>
+      <c r="N6" s="42"/>
       <c r="O6" s="41"/>
       <c r="P6" s="40" t="s">
         <v>19</v>
@@ -1749,10 +1781,10 @@
       <c r="L7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="42"/>
       <c r="O7" s="41"/>
       <c r="P7" s="40" t="s">
         <v>19</v>
@@ -1806,10 +1838,10 @@
         <v>69</v>
       </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="42"/>
+      <c r="N8" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="42"/>
       <c r="O8" s="41"/>
       <c r="P8" s="40" t="s">
         <v>19</v>
@@ -1902,10 +1934,10 @@
       <c r="L10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42" t="s">
+      <c r="M10" s="42" t="s">
         <v>36</v>
       </c>
+      <c r="N10" s="42"/>
       <c r="O10" s="41"/>
       <c r="P10" s="40" t="s">
         <v>19</v>
@@ -1963,10 +1995,10 @@
       <c r="L11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="42"/>
       <c r="O11" s="41"/>
       <c r="P11" s="40" t="s">
         <v>20</v>
@@ -2022,10 +2054,10 @@
       <c r="L12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="42"/>
+      <c r="N12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="42"/>
       <c r="O12" s="41"/>
       <c r="P12" s="40" t="s">
         <v>19</v>
@@ -2114,10 +2146,10 @@
       <c r="L14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="42"/>
       <c r="O14" s="41"/>
       <c r="P14" s="40" t="s">
         <v>19</v>
@@ -2173,10 +2205,10 @@
       <c r="L15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="42"/>
       <c r="O15" s="41"/>
       <c r="P15" s="40" t="s">
         <v>19</v>
@@ -2232,10 +2264,10 @@
       <c r="L16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="42"/>
+      <c r="N16" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="42"/>
       <c r="O16" s="41"/>
       <c r="P16" s="40" t="s">
         <v>19</v>
@@ -2291,10 +2323,10 @@
       <c r="L17" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42" t="s">
+      <c r="M17" s="42" t="s">
         <v>36</v>
       </c>
+      <c r="N17" s="42"/>
       <c r="O17" s="41"/>
       <c r="P17" s="40" t="s">
         <v>19</v>
@@ -2350,10 +2382,10 @@
       <c r="L18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="42"/>
+      <c r="N18" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="42"/>
       <c r="O18" s="41"/>
       <c r="P18" s="40" t="s">
         <v>19</v>
@@ -2409,10 +2441,10 @@
       <c r="L19" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="42"/>
+      <c r="N19" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="42"/>
       <c r="O19" s="41"/>
       <c r="P19" s="40" t="s">
         <v>19</v>
@@ -2468,10 +2500,10 @@
       <c r="L20" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="42"/>
+      <c r="N20" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="N20" s="42"/>
       <c r="O20" s="41"/>
       <c r="P20" s="40" t="s">
         <v>19</v>
@@ -2527,10 +2559,10 @@
       <c r="L21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="42"/>
+      <c r="N21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="42"/>
       <c r="O21" s="41"/>
       <c r="P21" s="40" t="s">
         <v>20</v>
@@ -2586,10 +2618,10 @@
       <c r="L22" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="42"/>
+      <c r="N22" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="42"/>
       <c r="O22" s="41"/>
       <c r="P22" s="40" t="s">
         <v>19</v>
@@ -2678,10 +2710,10 @@
       <c r="L24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="42"/>
+      <c r="N24" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="42"/>
       <c r="O24" s="41"/>
       <c r="P24" s="40" t="s">
         <v>19</v>
@@ -2737,10 +2769,10 @@
       <c r="L25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="42"/>
+      <c r="N25" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="42"/>
       <c r="O25" s="41"/>
       <c r="P25" s="40" t="s">
         <v>19</v>
@@ -2862,10 +2894,10 @@
       <c r="L28" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="42"/>
+      <c r="N28" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="42"/>
       <c r="O28" s="41"/>
       <c r="P28" s="40" t="s">
         <v>19</v>
@@ -3026,10 +3058,10 @@
       <c r="L32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="42" t="s">
+      <c r="M32" s="42"/>
+      <c r="N32" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="42"/>
       <c r="O32" s="41"/>
       <c r="P32" s="40" t="s">
         <v>20</v>
@@ -3116,10 +3148,10 @@
         <v>69</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42" t="s">
+      <c r="M34" s="42" t="s">
         <v>34</v>
       </c>
+      <c r="N34" s="42"/>
       <c r="O34" s="41" t="s">
         <v>187</v>
       </c>
@@ -3177,10 +3209,10 @@
       <c r="L35" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="42"/>
+      <c r="N35" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="N35" s="42"/>
       <c r="O35" s="41"/>
       <c r="P35" s="40" t="s">
         <v>19</v>
@@ -3234,10 +3266,10 @@
       <c r="L36" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="42" t="s">
+      <c r="M36" s="42"/>
+      <c r="N36" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="N36" s="42"/>
       <c r="O36" s="41"/>
       <c r="P36" s="40" t="s">
         <v>19</v>
@@ -3291,10 +3323,10 @@
       <c r="L37" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="42" t="s">
+      <c r="M37" s="42"/>
+      <c r="N37" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N37" s="42"/>
       <c r="O37" s="41"/>
       <c r="P37" s="40" t="s">
         <v>19</v>
@@ -3348,10 +3380,10 @@
       <c r="L38" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="42" t="s">
+      <c r="M38" s="42"/>
+      <c r="N38" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N38" s="42"/>
       <c r="O38" s="41"/>
       <c r="P38" s="40" t="s">
         <v>19</v>
@@ -3448,10 +3480,10 @@
       <c r="L40" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="42" t="s">
+      <c r="M40" s="42"/>
+      <c r="N40" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="42"/>
       <c r="O40" s="41"/>
       <c r="P40" s="40" t="s">
         <v>20</v>
@@ -3503,10 +3535,10 @@
       <c r="L41" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="42" t="s">
+      <c r="M41" s="42"/>
+      <c r="N41" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="42"/>
       <c r="O41" s="41"/>
       <c r="P41" s="40" t="s">
         <v>20</v>
@@ -4770,18 +4802,9 @@
       <c r="U95" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U40">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="S1:S2"/>
@@ -4794,6 +4817,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="221">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,7 +3440,9 @@
       <c r="M39" s="42"/>
       <c r="N39" s="42"/>
       <c r="O39" s="41"/>
-      <c r="P39" s="40"/>
+      <c r="P39" s="40" t="s">
+        <v>19</v>
+      </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -3486,7 +3488,7 @@
       </c>
       <c r="O40" s="41"/>
       <c r="P40" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="1">
         <v>6</v>
@@ -4803,6 +4805,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -4818,11 +4825,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado11\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$41</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -1440,10 +1440,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -1560,7 +1561,7 @@
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>67</v>
       </c>
@@ -1654,7 +1655,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>67</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>67</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>67</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>67</v>
       </c>
@@ -2111,7 +2112,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>67</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>67</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>67</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>67</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>67</v>
       </c>
@@ -2826,7 +2827,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
@@ -2859,7 +2860,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>67</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>67</v>
       </c>
@@ -2951,7 +2952,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>67</v>
       </c>
@@ -2986,7 +2987,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>67</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>67</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>67</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>67</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>67</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>67</v>
       </c>
@@ -3449,7 +3450,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>67</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>67</v>
       </c>
@@ -4804,12 +4805,15 @@
       <c r="U95" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U41">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="APROVECHADO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -4825,6 +4829,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado11\guion11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -17,9 +12,9 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$95</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="224">
   <si>
     <t>Asignatura</t>
   </si>
@@ -674,9 +669,6 @@
     <t>Recurso M5A-03</t>
   </si>
   <si>
-    <t>Recurso FQ_10_13_08-01</t>
-  </si>
-  <si>
     <t>Actividad que permite ejercitar la nomenclatura de alquenos</t>
   </si>
   <si>
@@ -702,6 +694,18 @@
   </si>
   <si>
     <t>Actividad que propone realizar una práctica de laboratorio para extraer algunos derivados del petróleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F1</t>
+  </si>
+  <si>
+    <t>Diaporama F1-02</t>
+  </si>
+  <si>
+    <t>Recursos adicionales 01</t>
+  </si>
+  <si>
+    <t>RF_01_02_CO</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,7 +1259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1432,7 +1436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1440,11 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,17 +1460,17 @@
     <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.42578125" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="5"/>
-    <col min="10" max="10" width="92.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="14" style="7" customWidth="1"/>
-    <col min="15" max="15" width="60" style="8" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" customWidth="1"/>
     <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1534,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -1561,7 +1564,7 @@
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
     </row>
-    <row r="3" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>67</v>
       </c>
@@ -1655,7 +1658,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
@@ -1688,7 +1691,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
@@ -1723,9 +1726,7 @@
       <c r="L6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="41"/>
       <c r="P6" s="40" t="s">
@@ -1747,7 +1748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>67</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>67</v>
       </c>
@@ -1898,7 +1899,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>67</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>69</v>
@@ -1996,10 +1997,10 @@
       <c r="L11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42" t="s">
-        <v>89</v>
-      </c>
+      <c r="M11" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="42"/>
       <c r="O11" s="41"/>
       <c r="P11" s="40" t="s">
         <v>20</v>
@@ -2014,13 +2015,13 @@
         <v>188</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>67</v>
       </c>
@@ -2112,7 +2113,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>67</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>67</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K15" s="38" t="s">
         <v>69</v>
@@ -2230,7 +2231,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>69</v>
@@ -2525,7 +2526,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>67</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2676,7 +2677,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>67</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>67</v>
       </c>
@@ -2827,7 +2828,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
@@ -2860,7 +2861,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>67</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>67</v>
       </c>
@@ -2952,7 +2953,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>67</v>
       </c>
@@ -2987,7 +2988,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>67</v>
       </c>
@@ -3022,7 +3023,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>67</v>
       </c>
@@ -3116,7 +3117,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>67</v>
       </c>
@@ -3169,13 +3170,13 @@
         <v>188</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
@@ -3222,19 +3223,19 @@
         <v>6</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="T35" s="11" t="s">
         <v>193</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>67</v>
       </c>
@@ -3250,7 +3251,7 @@
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
       <c r="G36" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H36" s="33">
         <v>23</v>
@@ -3259,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K36" s="38" t="s">
         <v>69</v>
@@ -3285,13 +3286,13 @@
         <v>140</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>67</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>67</v>
       </c>
@@ -3450,7 +3451,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>67</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>67</v>
       </c>
@@ -3521,7 +3522,7 @@
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
       <c r="G41" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H41" s="33">
         <v>28</v>
@@ -3530,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K41" s="38" t="s">
         <v>69</v>
@@ -3556,7 +3557,7 @@
         <v>140</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>141</v>
@@ -4805,14 +4806,6 @@
       <c r="U95" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="APROVECHADO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>

--- a/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$95</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1436,7 +1436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,6 +4807,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -4822,11 +4827,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA FINAL CN_11_11_CO .xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="DATOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$P$1:$P$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="231">
   <si>
     <t>Asignatura</t>
   </si>
@@ -426,9 +431,6 @@
     <t>Recursos F</t>
   </si>
   <si>
-    <t>Recurso F12-01</t>
-  </si>
-  <si>
     <t>RF_01_01_CO</t>
   </si>
   <si>
@@ -534,9 +536,6 @@
     <t>Recurso M1C-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Los polímeros </t>
-  </si>
-  <si>
     <t>Recurso F6-02</t>
   </si>
   <si>
@@ -546,9 +545,6 @@
     <t xml:space="preserve">Refuerza tu aprendizaje: Los alquenos </t>
   </si>
   <si>
-    <t>Interactivo que describe polímeros que se forman a partir de monomeros de alquenos</t>
-  </si>
-  <si>
     <t>Actividades sobre Los alquenos</t>
   </si>
   <si>
@@ -594,9 +590,6 @@
     <t>Recurso M6A-03</t>
   </si>
   <si>
-    <t>Secuencia de imágenes que muestran los usos y aplicaciones de los compuestos aromáticos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secuencia de imágenes </t>
   </si>
   <si>
@@ -678,9 +671,6 @@
     <t>Actividad que permite ejercitar la nomenclatura de los alcanos</t>
   </si>
   <si>
-    <t>Competencias: destilación de petróleo</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
@@ -693,12 +683,6 @@
     <t xml:space="preserve"> Motor que incluye preguntas de respuesta abierta del tema Los hidrocarburos</t>
   </si>
   <si>
-    <t>Actividad que propone realizar una práctica de laboratorio para extraer algunos derivados del petróleo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F1</t>
-  </si>
-  <si>
     <t>Diaporama F1-02</t>
   </si>
   <si>
@@ -706,13 +690,55 @@
   </si>
   <si>
     <t>RF_01_02_CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que muestra las generalidades de los hidrocarburos alquenos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las olefinas o alquenos </t>
+  </si>
+  <si>
+    <t>Video como media principal - 01</t>
+  </si>
+  <si>
+    <t>Recurso FQ_10_13_08-01</t>
+  </si>
+  <si>
+    <t>Los hidrocarburos con triple enlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secuencia de imágenes que permite explicar las características y propiedades de los alquinos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los compuestos aromáticos </t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes que muestran las características del benceno y los compuestos aromáticos</t>
+  </si>
+  <si>
+    <t>Competencias: obtención de un hidrocarburo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencias: elaboración de velas </t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar una práctica de laboratorio sintetizar un hidrocarburo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que propone realizar una práctica de laboratorio para elaborar velas aromáticas </t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECUENCIA DE IMÁGENES </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,8 +766,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +820,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1104,10 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1121,8 +1174,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,6 +1215,124 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,7 +1605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1444,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,154 +1644,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="46" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="42" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="56">
         <v>1</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" s="40" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="61">
         <v>6</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>131</v>
+      <c r="S3" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="T3" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="U3" s="61" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,16 +1809,16 @@
         <v>94</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -1675,16 +1842,16 @@
         <v>95</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="40"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="36"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -1708,44 +1875,44 @@
         <v>96</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <v>2</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="S6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1765,46 +1932,46 @@
         <v>96</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="31">
+        <v>3</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="33">
-        <v>3</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="40" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="1">
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1824,44 +1991,46 @@
         <v>97</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="G8" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="31">
         <v>4</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42" t="s">
+      <c r="L8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="40" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="1">
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1877,22 +2046,22 @@
       <c r="D9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="40"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="36"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -1912,36 +2081,36 @@
       <c r="D10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="31">
+        <v>5</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="33">
-        <v>5</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="40" t="s">
+      <c r="N10" s="38"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="1">
@@ -1954,71 +2123,71 @@
         <v>129</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="G11" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="73">
         <v>6</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="38" t="s">
+      <c r="J11" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="76"/>
+      <c r="P11" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="61">
+        <v>6</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" s="99" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>6</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>190</v>
+      <c r="U11" s="61" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2038,46 +2207,46 @@
         <v>102</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="31">
+        <v>7</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="33">
-        <v>7</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42" t="s">
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="40" t="s">
+      <c r="O12" s="37"/>
+      <c r="P12" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="1">
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2093,20 +2262,20 @@
       <c r="D13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="40" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="40"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="36"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2130,108 +2299,106 @@
         <v>97</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="31">
         <v>8</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="K14" s="38" t="s">
+      <c r="J14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42" t="s">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="40" t="s">
+      <c r="O14" s="37"/>
+      <c r="P14" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="1">
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T14" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="89">
         <v>9</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" s="38" t="s">
+      <c r="I15" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="K15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="40" t="s">
+      <c r="L15" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="95">
         <v>6</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="R15" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="T15" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="U15" s="97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>67</v>
       </c>
@@ -2245,52 +2412,52 @@
         <v>104</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="31">
         <v>10</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" s="38" t="s">
+      <c r="J16" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="40" t="s">
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="1">
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T16" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
@@ -2304,49 +2471,49 @@
         <v>104</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="33">
+      <c r="G17" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="31">
         <v>11</v>
       </c>
-      <c r="I17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="38" t="s">
+      <c r="I17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="40" t="s">
+      <c r="L17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="1">
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2366,46 +2533,46 @@
         <v>107</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="31">
+        <v>12</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="33">
-        <v>12</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="40" t="s">
+      <c r="O18" s="37"/>
+      <c r="P18" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="1">
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2425,105 +2592,103 @@
         <v>97</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="33">
+      <c r="G19" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="31">
         <v>13</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="38" t="s">
+      <c r="J19" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42" t="s">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="40" t="s">
+      <c r="O19" s="37"/>
+      <c r="P19" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="1">
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    </row>
+    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="E20" s="101"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="79">
         <v>14</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="38" t="s">
+      <c r="J20" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="40" t="s">
+      <c r="L20" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="66"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="81">
         <v>6</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>141</v>
+      <c r="R20" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="T20" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="U20" s="81" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2539,50 +2704,50 @@
       <c r="D21" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="40" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="26"/>
-      <c r="G21" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="G21" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="31">
         <v>15</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" s="38" t="s">
+      <c r="J21" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="40" t="s">
-        <v>20</v>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="37"/>
+      <c r="P21" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="Q21" s="1">
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="T21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2598,53 +2763,53 @@
       <c r="D22" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>109</v>
+      <c r="E22" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="F22" s="26"/>
-      <c r="G22" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="31">
         <v>16</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="38" t="s">
+      <c r="J22" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="40" t="s">
-        <v>19</v>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="37"/>
+      <c r="P22" s="36" t="s">
+        <v>20</v>
       </c>
       <c r="Q22" s="1">
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="T22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
@@ -2657,27 +2822,53 @@
       <c r="D23" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>110</v>
+      <c r="E23" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="31">
+        <v>17</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>6</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>67</v>
       </c>
@@ -2691,52 +2882,26 @@
         <v>108</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F24" s="26"/>
-      <c r="G24" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="33">
-        <v>17</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>6</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>67</v>
       </c>
@@ -2746,56 +2911,56 @@
       <c r="C25" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>112</v>
+      <c r="D25" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="33">
+      <c r="G25" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="31">
         <v>18</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="K25" s="38" t="s">
+      <c r="J25" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="40" t="s">
+      <c r="M25" s="38"/>
+      <c r="N25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="O25" s="37"/>
+      <c r="P25" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="1">
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="T25" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>67</v>
       </c>
@@ -2805,28 +2970,54 @@
       <c r="C26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="39" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="26"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="2"/>
+      <c r="G26" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="31">
+        <v>19</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="37"/>
+      <c r="P26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>6</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -2838,30 +3029,30 @@
       <c r="C27" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="39" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="26"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="40"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>67</v>
       </c>
@@ -2871,56 +3062,30 @@
       <c r="C28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="44" t="s">
-        <v>116</v>
+      <c r="E28" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="F28" s="26"/>
-      <c r="G28" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="33">
-        <v>19</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>6</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>67</v>
       </c>
@@ -2930,28 +3095,54 @@
       <c r="C29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>118</v>
+      <c r="D29" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="2"/>
+      <c r="G29" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="31">
+        <v>20</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="37"/>
+      <c r="P29" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>6</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
@@ -2966,64 +3157,86 @@
       <c r="D30" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="40"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="36"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="E31" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="78"/>
+      <c r="G31" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="79">
+        <v>21</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="66"/>
+      <c r="O31" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>6</v>
+      </c>
+      <c r="R31" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="S31" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="T31" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="U31" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
@@ -3036,53 +3249,27 @@
       <c r="D32" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="40" t="s">
         <v>119</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="33">
-        <v>20</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="K32" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>6</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -3097,86 +3284,90 @@
       <c r="D33" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="40"/>
+      <c r="E33" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="33">
-        <v>21</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="E34" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="111">
+        <v>22</v>
+      </c>
+      <c r="I34" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="115"/>
+      <c r="P34" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="K34" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="116">
         <v>6</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="S34" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>221</v>
+      <c r="T34" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>67</v>
       </c>
@@ -3189,167 +3380,145 @@
       <c r="D35" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="44" t="s">
-        <v>116</v>
+      <c r="E35" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="F35" s="26"/>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="33">
-        <v>22</v>
-      </c>
-      <c r="I35" s="33" t="s">
+      <c r="E36" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" s="89">
+        <v>23</v>
+      </c>
+      <c r="I36" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J36" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="K36" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L36" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="O35" s="41"/>
-      <c r="P35" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="M36" s="92"/>
+      <c r="N36" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="93"/>
+      <c r="P36" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="95">
         <v>6</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="T35" s="11" t="s">
+      <c r="R36" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="T36" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="U36" s="97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="88"/>
+      <c r="G37" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="U35" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H36" s="33">
-        <v>23</v>
-      </c>
-      <c r="I36" s="33" t="s">
+      <c r="H37" s="89">
+        <v>24</v>
+      </c>
+      <c r="I37" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="K36" s="38" t="s">
+      <c r="J37" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L37" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="M37" s="92"/>
+      <c r="N37" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="93"/>
+      <c r="P37" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="95">
         <v>6</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R37" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="S37" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="T37" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="U37" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="T36" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="33">
-        <v>24</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="41"/>
-      <c r="P37" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>6</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
@@ -3360,53 +3529,55 @@
         <v>91</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="25"/>
+        <v>117</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="F38" s="26"/>
-      <c r="G38" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H38" s="33">
+      <c r="G38" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="31">
         <v>25</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="K38" s="38" t="s">
+      <c r="J38" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="39" t="s">
+      <c r="L38" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="O38" s="41"/>
-      <c r="P38" s="40" t="s">
+      <c r="M38" s="38"/>
+      <c r="N38" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="O38" s="37"/>
+      <c r="P38" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="1">
         <v>6</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>67</v>
       </c>
@@ -3417,98 +3588,110 @@
         <v>91</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="H39" s="33">
+      <c r="G39" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" s="31">
         <v>26</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="K39" s="38" t="s">
+      <c r="J39" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K39" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="40" t="s">
+      <c r="L39" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="37"/>
+      <c r="P39" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="2"/>
+      <c r="Q39" s="1">
+        <v>6</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" s="33">
+      <c r="D40" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="79">
         <v>27</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="K40" s="38" t="s">
+      <c r="J40" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="K40" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="O40" s="41"/>
-      <c r="P40" s="40" t="s">
+      <c r="M40" s="66"/>
+      <c r="N40" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="82"/>
+      <c r="P40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="68">
         <v>6</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="S40" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="S40" s="11" t="s">
+      <c r="T40" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="U40" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="T40" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>67</v>
       </c>
@@ -3518,96 +3701,152 @@
       <c r="C41" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="H41" s="33">
+      <c r="G41" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="31">
         <v>28</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="K41" s="38" t="s">
+      <c r="J41" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>6</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="L41" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>201</v>
+      </c>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="G42" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="31">
+        <v>29</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42" s="37"/>
+      <c r="P42" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>6</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>91</v>
+      </c>
       <c r="D43" s="22"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="2"/>
+      <c r="G43" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="31">
+        <v>30</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="37"/>
+      <c r="P43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>6</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
@@ -3616,16 +3855,16 @@
       <c r="D44" s="22"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="40"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="36"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
@@ -3639,39 +3878,39 @@
       <c r="D45" s="22"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="40"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="36"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="40"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="36"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
@@ -3685,39 +3924,39 @@
       <c r="D47" s="22"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="40"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="36"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="40"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
@@ -3731,16 +3970,16 @@
       <c r="D49" s="22"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="40"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -3751,19 +3990,19 @@
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="40"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
@@ -3774,19 +4013,19 @@
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="40"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -3800,16 +4039,16 @@
       <c r="D52" s="23"/>
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="40"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="36"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
@@ -3823,16 +4062,16 @@
       <c r="D53" s="23"/>
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="40"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
@@ -3846,16 +4085,16 @@
       <c r="D54" s="23"/>
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="40"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -3869,16 +4108,16 @@
       <c r="D55" s="23"/>
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="40"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="36"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
@@ -3892,16 +4131,16 @@
       <c r="D56" s="23"/>
       <c r="E56" s="27"/>
       <c r="F56" s="28"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="40"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="36"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
@@ -3915,16 +4154,16 @@
       <c r="D57" s="23"/>
       <c r="E57" s="27"/>
       <c r="F57" s="28"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="40"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="36"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
@@ -3938,16 +4177,16 @@
       <c r="D58" s="23"/>
       <c r="E58" s="27"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="40"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="36"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
@@ -3961,16 +4200,16 @@
       <c r="D59" s="23"/>
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="40"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="36"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
@@ -3984,16 +4223,16 @@
       <c r="D60" s="23"/>
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="40"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
@@ -4007,16 +4246,16 @@
       <c r="D61" s="23"/>
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="40"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="36"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
@@ -4030,16 +4269,16 @@
       <c r="D62" s="23"/>
       <c r="E62" s="27"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="40"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
@@ -4053,16 +4292,16 @@
       <c r="D63" s="23"/>
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="40"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="36"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -4076,16 +4315,16 @@
       <c r="D64" s="23"/>
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="40"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="36"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
@@ -4099,16 +4338,16 @@
       <c r="D65" s="23"/>
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="40"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="36"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
@@ -4122,16 +4361,16 @@
       <c r="D66" s="23"/>
       <c r="E66" s="27"/>
       <c r="F66" s="28"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="40"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="36"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
@@ -4145,16 +4384,16 @@
       <c r="D67" s="23"/>
       <c r="E67" s="27"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="40"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="36"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
@@ -4168,16 +4407,16 @@
       <c r="D68" s="23"/>
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="40"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="36"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -4191,16 +4430,16 @@
       <c r="D69" s="23"/>
       <c r="E69" s="27"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="40"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="36"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
@@ -4214,16 +4453,16 @@
       <c r="D70" s="23"/>
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="40"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="36"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
@@ -4237,16 +4476,16 @@
       <c r="D71" s="23"/>
       <c r="E71" s="27"/>
       <c r="F71" s="28"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="40"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="36"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
@@ -4260,16 +4499,16 @@
       <c r="D72" s="23"/>
       <c r="E72" s="27"/>
       <c r="F72" s="28"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="40"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="36"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
@@ -4283,16 +4522,16 @@
       <c r="D73" s="23"/>
       <c r="E73" s="27"/>
       <c r="F73" s="28"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="40"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="36"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
@@ -4306,16 +4545,16 @@
       <c r="D74" s="23"/>
       <c r="E74" s="27"/>
       <c r="F74" s="28"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="40"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="36"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
@@ -4329,16 +4568,16 @@
       <c r="D75" s="23"/>
       <c r="E75" s="27"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="40"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="36"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
@@ -4352,16 +4591,16 @@
       <c r="D76" s="23"/>
       <c r="E76" s="27"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="40"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="36"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
@@ -4375,16 +4614,16 @@
       <c r="D77" s="23"/>
       <c r="E77" s="27"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="40"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="36"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
@@ -4398,16 +4637,16 @@
       <c r="D78" s="23"/>
       <c r="E78" s="27"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="40"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="36"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
@@ -4421,16 +4660,16 @@
       <c r="D79" s="23"/>
       <c r="E79" s="27"/>
       <c r="F79" s="28"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="40"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="36"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
@@ -4444,16 +4683,16 @@
       <c r="D80" s="23"/>
       <c r="E80" s="27"/>
       <c r="F80" s="28"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="40"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="36"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
@@ -4467,16 +4706,16 @@
       <c r="D81" s="23"/>
       <c r="E81" s="27"/>
       <c r="F81" s="28"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="40"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="36"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
@@ -4490,16 +4729,16 @@
       <c r="D82" s="23"/>
       <c r="E82" s="27"/>
       <c r="F82" s="28"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="40"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="36"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
@@ -4513,16 +4752,16 @@
       <c r="D83" s="23"/>
       <c r="E83" s="27"/>
       <c r="F83" s="28"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="40"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="36"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="11"/>
       <c r="S83" s="11"/>
@@ -4536,16 +4775,16 @@
       <c r="D84" s="23"/>
       <c r="E84" s="27"/>
       <c r="F84" s="28"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="40"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="36"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
@@ -4559,16 +4798,16 @@
       <c r="D85" s="23"/>
       <c r="E85" s="27"/>
       <c r="F85" s="28"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="40"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="36"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
@@ -4582,16 +4821,16 @@
       <c r="D86" s="23"/>
       <c r="E86" s="27"/>
       <c r="F86" s="28"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="40"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="36"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
@@ -4605,16 +4844,16 @@
       <c r="D87" s="23"/>
       <c r="E87" s="27"/>
       <c r="F87" s="28"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="40"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="36"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="11"/>
       <c r="S87" s="11"/>
@@ -4628,16 +4867,16 @@
       <c r="D88" s="23"/>
       <c r="E88" s="27"/>
       <c r="F88" s="28"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="40"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="36"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
@@ -4651,16 +4890,16 @@
       <c r="D89" s="23"/>
       <c r="E89" s="27"/>
       <c r="F89" s="28"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="41"/>
-      <c r="P89" s="40"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="38"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="36"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
@@ -4674,16 +4913,16 @@
       <c r="D90" s="23"/>
       <c r="E90" s="27"/>
       <c r="F90" s="28"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="40"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="38"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="36"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
@@ -4697,16 +4936,16 @@
       <c r="D91" s="23"/>
       <c r="E91" s="27"/>
       <c r="F91" s="28"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="40"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="38"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="36"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
@@ -4720,16 +4959,16 @@
       <c r="D92" s="23"/>
       <c r="E92" s="27"/>
       <c r="F92" s="28"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="40"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="36"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
@@ -4743,16 +4982,16 @@
       <c r="D93" s="23"/>
       <c r="E93" s="27"/>
       <c r="F93" s="28"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="42"/>
-      <c r="N93" s="42"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="40"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="38"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="36"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="11"/>
       <c r="S93" s="11"/>
@@ -4766,16 +5005,16 @@
       <c r="D94" s="23"/>
       <c r="E94" s="27"/>
       <c r="F94" s="28"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="O94" s="41"/>
-      <c r="P94" s="40"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="38"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="36"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
@@ -4789,29 +5028,73 @@
       <c r="D95" s="23"/>
       <c r="E95" s="27"/>
       <c r="F95" s="28"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="38"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="40"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="36"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
       <c r="U95" s="2"/>
     </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="38"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="2"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="38"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:U43">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -4827,6 +5110,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4867,7 +5155,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>112</v>
       </c>
     </row>
